--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/de_DE.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/de_DE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5126">
   <si>
     <t>translation_group</t>
   </si>
@@ -15349,12 +15349,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Benachrichtigungen</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15741,17 +15735,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54398,18 +54392,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5110</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5111</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54419,10 +54405,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5112</v>
+        <v>5110</v>
       </c>
       <c r="D2763" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54433,10 +54419,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5114</v>
+        <v>5112</v>
       </c>
       <c r="D2764" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54447,10 +54433,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5116</v>
+        <v>5114</v>
       </c>
       <c r="D2765" t="s">
-        <v>5117</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54461,10 +54447,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5118</v>
+        <v>5116</v>
       </c>
       <c r="D2766" t="s">
-        <v>5119</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54475,10 +54461,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5120</v>
+        <v>5118</v>
       </c>
       <c r="D2767" t="s">
-        <v>5121</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54489,10 +54475,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5122</v>
+        <v>5120</v>
       </c>
       <c r="D2768" t="s">
-        <v>5123</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54503,10 +54489,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="D2769" t="s">
-        <v>5125</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54545,11 +54531,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5126</v>
+        <v>5124</v>
       </c>
       <c r="D2772" t="s">
-        <v>5127</v>
-      </c>
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/de_DE.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/de_DE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5774">
   <si>
     <t>translation_group</t>
   </si>
@@ -10040,7 +10040,7 @@
     <t>SEO-Einstellungen</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Füllen Sie die Felder aus, um maximale Ergebnisse zu erzielen, wenn Sie Ihre Website in Suchmaschinen finden.</t>
@@ -16750,6 +16750,607 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Willkommen bei Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Verwenden Sie Microweber, um Ihre Website, Ihren Online-Shop oder Ihr Blog zu erstellen.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Erstellen und bearbeiten Sie Inhalte, verkaufen Sie online, verwalten Sie Bestellungen und Kunden.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Entfernen</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Sie verwenden diese Vorlage.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Die Änderung wirkt sich nur auf die aktuelle Seite aus.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Erlaube mehrere Vorlagen</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Wenn Sie mehrere Vorlagen zulassen, können Sie beim Erstellen neuer Seiten unterschiedliche Vorlagen verwenden.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Einstellungen der System-E-Mail-Website</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Übermitteln Sie Nachrichten zu neuen Registrierungen, Zurücksetzen von Passwörtern und anderen Systemfunktionen.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Von der Email Adresse</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Ex. Ihr Website-Name</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Allgemeine Einstellungen des E-Mail-Anbieters</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Richten Sie Ihren E-Mail-Anbieter ein.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Der allgemeine E-Mail-Anbieter übermittelt alle mit der Website verbundenen Nachrichten. Einschließlich Systemnachrichten und Kontaktformularnachrichten.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Website-Logo</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Wählen Sie ein Logo für Ihre Website.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Logo hochladen</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Ändern der Standardsprache ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Cache leeren..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Installieren Sie das mehrsprachige Modul</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Registrierte Benutzer können automatisch eine automatische E-Mail von Ihnen erhalten. Sehen Sie sich die Einstellungen an und veröffentlichen Sie Ihre Nachrichten.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Senden Sie eine E-Mail über die Registrierung neuer Benutzer an Administratorbenutzer</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Möchten Sie, dass Administratoren eine E-Mail erhalten, wenn ein neuer Benutzer registriert wird?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber ist ein kostenloser Open Source Drag &amp; Drop Website Builder und CMS. Es steht unter MIT-Lizenz und wir verwenden das Laravel PHP-Framework</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Ein Slider</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Versand an Adresse</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Abholung von der Adresse</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Globale Einstellungen</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>E-Mail-Integrationen</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Sie haben kein System-E-Mail- und SMTP-Setup.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Richten Sie hier Ihre Systemeinstellungen ein.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Globale Einstellungen für Kontaktformulare</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>E-Mail-Sendeoptionen</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Globaler Absender</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Verwenden Sie benutzerdefinierte Absendereinstellungen</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Verwenden Sie benutzerdefinierte Absendereinstellungen für die globalen Kontaktformulare.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Standardmäßig verwenden wir die E-Mail-Einstellungen des Website-Systems.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Hier können Sie die E-Mail-Einstellungen des Systems ändern.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Globale Empfänger</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Senden Sie Kontaktformulardaten an globale Empfänger, wenn diese übermittelt werden</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>An E-Mail-Adressen</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>E-Mail-Adresse der mit Koma getrennten Empfänger.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Wenden Sie sich an Ihren Hosting-Anbieter, um die PHP SOAP-Erweiterung zu aktivieren.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elemente</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>Vor 2 Monaten</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Logo entfernen</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Favicon entfernen</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Benutzerdefiniert</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>ProdukteV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Zeitleiste</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>White Label WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Die Modulvorlage wurde geändert</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Inhaltsversionen</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Standardlayouts und -elemente</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Pfeile Liste</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Checkliste</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Hintergrundtext</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Titel mit Text</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Symbol mit Text</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Zwei Textspalten</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Zwei Textspalten mit Symbol und Titel</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Bild mit Titel und Text</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Text mit Bild und Titel</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Kommentare aktivieren</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Captcha-Einstellungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richten Sie Ihre Captcha-Einstellungen von ein </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Aktuelle Einstellungen des Kontaktformulars</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Name des Kontaktformulars</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Wie heißt dieses Kontaktformular?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Empfänger</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Senden Sie Kontaktformulardaten an benutzerdefinierte Empfänger, wenn diese übermittelt werden</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Verwenden Sie benutzerdefinierte Empfängereinstellungen für das aktuelle Kontaktformular.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Standardmäßig verwenden wir die globalen Einstellungen für Kontaktformulare.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Hier können Sie die globalen Einstellungen des Kontaktformulars ändern.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Automatische Antwortnachricht an Benutzer</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Aktivieren Sie die automatische Antwortnachricht an den Benutzer</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Ermöglichen Sie Benutzern, "Danke-E-Mails nach dem Abonnement" zu erhalten.</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Betreff automatisch antworten</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Automatische Antwortnachricht</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Automatisch antwortende E-Mail, die an den Benutzer zurückgesendet wird</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Benutzerdefinierter benutzerdefinierter Absender</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Verwenden Sie benutzerdefinierte Absendereinstellungen für das aktuelle Kontaktformular.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Automatische Antwort von der E-Mail-Adresse</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Automatische Antwort vom Namen</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Automatische Antwort Antwort auf E-Mail</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Wenn der Benutzer die automatische Antwortnachricht erhält, kann er antworten, um auf eine E-Mail zu antworten.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Automatische Antwort auf E-Mail-Anhänge</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Wenn Sie Bilder anhängen möchten, müssen Sie diese über "Medien hinzufügen" in die Galerie hochladen.</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Sie haben noch keine Beiträge</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Erstelle jetzt deinen ersten Beitrag.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Erstellen Sie einen Beitrag</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>So schreiben Sie Produktbeschreibungen, die
+                                                    verkaufen. Eines der besten Dinge, die Sie tun können, um Ihr Geschäft erfolgreich zu machen, ist, etwas Zeit in das Schreiben großartiger Produktbeschreibungen zu investieren. Sie möchten detaillierte und dennoch präzise Informationen bereitstellen, die potenzielle Kunden zum Kauf verleiten.
+                                                    Denken Sie wie ein Verbraucher
+                                                    Überlegen Sie, was Sie als Verbraucher wissen möchten, und nehmen Sie diese Funktionen in Ihre Beschreibung auf. Für Kleidung: Materialien und Passform. Für Lebensmittel: Zutaten und wie es zubereitet wurde. Aufzählungszeichen sind Ihre Freunde, wenn Sie
+                                                   -Funktionen auflisten. Versuchen Sie,
+                                                            jeweils auf 5-8 Wörter zu beschränken.</t>
   </si>
 </sst>
 </file>
@@ -17088,7 +17689,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67396,6 +67997,1757 @@
         <v>3576</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5577</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5578</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5579</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5580</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5581</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5582</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5583</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5584</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5585</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5588</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5589</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5590</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5591</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5592</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5593</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5594</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5595</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5596</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5597</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5598</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5599</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5600</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5601</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5602</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5603</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5604</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5605</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5606</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5607</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5608</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5609</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5610</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5611</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5612</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5613</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5614</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5614</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5615</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5616</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5617</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5618</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5619</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5620</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5621</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3784</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5622</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5623</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5624</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5625</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5626</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5627</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5628</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5629</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5630</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5631</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5632</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5633</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5634</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5635</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5636</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5637</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5638</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5639</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5640</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5641</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5642</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5643</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5644</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5645</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5646</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5647</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5648</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5649</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5650</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5651</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5652</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5653</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5654</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5655</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5656</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5657</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5658</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5659</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5660</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5661</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5662</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5663</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5664</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5665</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5666</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5667</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5668</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5669</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5670</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5671</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5672</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5673</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5675</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5676</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5677</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5678</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5678</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5679</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5679</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5680</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5681</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5682</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5684</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5685</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5686</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3280</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5688</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5692</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5693</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5694</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5695</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5696</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5697</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5698</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5699</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5700</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5701</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5702</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5703</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5705</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5707</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5709</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5711</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4851</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5721</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5723</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5725</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5731</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5733</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5735</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5750</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5752</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5754</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5756</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5758</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5759</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5760</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5762</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5764</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5766</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5768</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5770</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5771</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/de_DE.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/de_DE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6065">
   <si>
     <t>translation_group</t>
   </si>
@@ -17351,6 +17351,879 @@
                                                     Überlegen Sie, was Sie als Verbraucher wissen möchten, und nehmen Sie diese Funktionen in Ihre Beschreibung auf. Für Kleidung: Materialien und Passform. Für Lebensmittel: Zutaten und wie es zubereitet wurde. Aufzählungszeichen sind Ihre Freunde, wenn Sie
                                                    -Funktionen auflisten. Versuchen Sie,
                                                             jeweils auf 5-8 Wörter zu beschränken.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Admin-Sprache</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Grenze</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Code-Editor</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Bloggen</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Titel 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Titel 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Titel 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Titel 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Titel 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Titel 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Titel 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Titel 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>Textblock</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Textblock 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Textblock 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Textblock 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Textblock 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Textblock 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Textblock 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Textblock 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Textblock 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Textblock 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Textblock 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Textblock 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Textblock 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Textblock 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Textblock 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Textblock 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Merkmale</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Funktionen 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Funktionen 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Funktionen 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Funktionen 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menü - Skin-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menü - Haut-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Menü - Haut-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menü - Haut-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Menü - Haut-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>Fußzeilen</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Fußzeilen 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Fußzeilen 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Fußzeilen 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Fußzeilen 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Preise 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Standardlayouts</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Kein Inhalt hier</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Benutzerdefinierte Felder werden gespeichert</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Bestehende Felder</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Wählen Sie unten aus Ihren vorhandenen Feldern aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neue Felder hinzufügen</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Fügen Sie ein neues benutzerdefiniertes Feld aus der Liste unten hinzu</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Ihre Felder</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Liste Ihrer hinzugefügten benutzerdefinierten Felder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vertikal wiederholen </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Schriftfamilie</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Überlagerung</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Mischmodus</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Containertyp</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animationen</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Stile neu laden</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Links zu</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Vorschaupaket</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Benutzen</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Strom</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Neu anordnen</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Browser-Umleitung</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Eigenständiger Updater</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Sie benötigen einen Lizenzschlüssel, um dieses Paket zu installieren</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Dieses Paket ist Premium und Sie benötigen einen Lizenzschlüssel, um es zu installieren</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Sie benötigen einen Lizenzschlüssel</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Lizenz aktiviert</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Seite wird neu geladen</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Lizenz nicht aktiviert</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Systemaktualisierung</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Suchen Sie nach Systemaktualisierungen</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Zurück zur Liste</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Die Kategorie muss einen Namen haben</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Kategorie ausgeblendet?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Wenn Sie dies auf JA setzen, wird diese Kategorie auf der Website ausgeblendet</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Erwähnung</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Ihr Warenkorb ist leer.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Gefundene Ergebnisse</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Wenn Sie den Prozentsatz aus dem Auswahlfeld auswählen, wird er automatisch aus dem Preis und dem Angebotspreis des Produkts berechnet.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.erforderlich</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>iuiui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Zur Kasse</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Anzeigen</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>Ergebnisse)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Seitentitel - Rechter Breadcrumb</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Seitentitel - Linker Breadcrumb</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Nutzungsbedingungen</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Lieferung und Rücksendung</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Etwa 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Ungefähr 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Ungefähr 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Startseite 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Haus 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Sie müssen auf die Schaltfläche Vorlage anwenden klicken, um Ihre Vorlage zu ändern</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Suche nach Kriterien</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Stammen aus</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Legen Sie das Bestelldatum fest</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Datum bis</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Legen Sie die Bestellungen auf dem Laufenden</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Bestellmenge ab</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Zeigen Sie die Bestellung mit Mindestbetrag an</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Bestellbetrag bis</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Zeigen Sie die Bestellung mit dem Höchstbetrag an</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Suche nach Produkten...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Suche nach Produkten</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Zahlungsstatus</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Kostenlose Suche nach Telefon, Name, E-Mail etc...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Reichen Sie dieses Kriterium ein</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Filter zurücksetzen</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Alle exportieren</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Sortierung auswählen</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Bestelldatum</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Neu &gt; Alt]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Alt &gt; Neu]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Hoch &gt; Niedrig]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Niedrig &gt; Hoch]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Bestellung abgeschlossen</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>Übersetzungen aus dem Mehrsprachenmodul wurden in Ihrer Datenbank gefunden.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Warnung! Das Ändern der Standardsprache kann Übersetzungen auf Ihrer Website beschädigen.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Möchten Sie wirklich fortfahren?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Warnung! Die sich ändernde Standardsprache wird Ihre Website möglicherweise beschädigen.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Versanddetails</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>Die Bestellung ist noch nicht abgeschlossen</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>die bestellung ist abgeschlossen</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Hergestellt in</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schnellansicht </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Sprachwerte ersetzen</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Übersetzungen werden importiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Übersetzungen nicht in der Datenbank gefunden. Möchten Sie Übersetzungen importieren? </t>
   </si>
 </sst>
 </file>
@@ -17374,10 +18247,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17388,7 +18258,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17689,7 +18559,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69751,8 +70621,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5802</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5808</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2197</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>2646</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5884</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>5899</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>5903</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>5905</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>5907</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>5915</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>5916</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>5917</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2693</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>5934</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>5935</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>5936</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>5937</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>5939</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>5940</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>5941</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>5943</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>5946</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5771</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>5956</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>5956</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>5959</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>5965</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>5967</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>3732</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>5985</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>5987</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>5991</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6020</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4104</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6054</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -69764,5 +73268,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/de_DE.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/de_DE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5883">
   <si>
     <t>translation_group</t>
   </si>
@@ -16794,25 +16794,25 @@
     <t>Allow multiple templates</t>
   </si>
   <si>
-    <t>Erlaube mehrere Vorlagen</t>
+    <t>Mehrere Vorlagen zulassen</t>
   </si>
   <si>
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Wenn Sie mehrere Vorlagen zulassen, können Sie beim Erstellen neuer Seiten unterschiedliche Vorlagen verwenden.</t>
+    <t>Wenn Sie mehrere Vorlagen zulassen, können Sie verschiedene Vorlagen verwenden, wenn Sie eine neue Seite erstellen.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>Einstellungen der System-E-Mail-Website</t>
+    <t>System-E-Mail-Website-Einstellungen</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Übermitteln Sie Nachrichten zu neuen Registrierungen, Zurücksetzen von Passwörtern und anderen Systemfunktionen.</t>
+    <t>Liefern Sie Nachrichten im Zusammenhang mit Neuregistrierungen, Passwortrücksetzungen und anderen Systemfunktionen.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -16830,7 +16830,7 @@
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>Allgemeine Einstellungen des E-Mail-Anbieters</t>
+    <t>Allgemeine E-Mail-Provider-Einstellungen</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
@@ -16842,7 +16842,7 @@
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Der allgemeine E-Mail-Anbieter übermittelt alle mit der Website verbundenen Nachrichten. Einschließlich Systemnachrichten und Kontaktformularnachrichten.</t>
+    <t>Der allgemeine E-Mail-Anbieter liefert alle Nachrichten im Zusammenhang mit der Website. Einschließlich Systemnachrichten und Kontaktformularnachrichten.</t>
   </si>
   <si>
     <t>Website Logo</t>
@@ -16854,7 +16854,7 @@
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Wählen Sie ein Logo für Ihre Website.</t>
+    <t>Wählen Sie ein Logo für Ihre Website aus.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -16866,10 +16866,13 @@
     <t>Website Favicon</t>
   </si>
   <si>
+    <t>Website-Favicon</t>
+  </si>
+  <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Ändern der Standardsprache ..</t>
+    <t>Standardsprache ändern..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -16887,16 +16890,19 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>Benutzer können sich mit temporären E-Mails wie - Mailinator, MailDrop, Guerilla ... registrieren</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Registrierte Benutzer können automatisch eine automatische E-Mail von Ihnen erhalten. Sehen Sie sich die Einstellungen an und veröffentlichen Sie Ihre Nachrichten.</t>
+    <t>Registrierte Benutzer können automatisch eine automatische E-Mail von Ihnen erhalten. Sehen Sie sich die Einstellungen an und posten Sie Ihre Nachrichten.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Senden Sie eine E-Mail über die Registrierung neuer Benutzer an Administratorbenutzer</t>
+    <t>Senden Sie eine E-Mail bei der Registrierung neuer Benutzer an Administratorbenutzer</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
@@ -16908,13 +16914,13 @@
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber ist ein kostenloser Open Source Drag &amp; Drop Website Builder und CMS. Es steht unter MIT-Lizenz und wir verwenden das Laravel PHP-Framework</t>
+    <t>Microweber ist ein kostenloses Open-Source-Drag-and-Drop-Website-Builder und CMS. Es steht unter MIT-Lizenz und wir verwenden das Laravel PHP-Framework</t>
   </si>
   <si>
     <t>A Slider</t>
   </si>
   <si>
-    <t>Ein Slider</t>
+    <t>Ein Schieber</t>
   </si>
   <si>
     <t>Shipping to address</t>
@@ -16926,7 +16932,7 @@
     <t>Pickup from address</t>
   </si>
   <si>
-    <t>Abholung von der Adresse</t>
+    <t>Abholung von Adresse</t>
   </si>
   <si>
     <t>Global settings</t>
@@ -16944,7 +16950,7 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Sie haben kein System-E-Mail- und SMTP-Setup.</t>
+    <t>Sie haben kein E-Mail- und SMTP-System eingerichtet.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
@@ -16956,13 +16962,13 @@
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Globale Einstellungen für Kontaktformulare</t>
+    <t>Globale Kontaktformulareinstellungen</t>
   </si>
   <si>
     <t>E-mail sending options</t>
   </si>
   <si>
-    <t>E-Mail-Sendeoptionen</t>
+    <t>E-Mail-Versandoptionen</t>
   </si>
   <si>
     <t>Global sender</t>
@@ -17004,7 +17010,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Senden Sie Kontaktformulardaten an globale Empfänger, wenn diese übermittelt werden</t>
+    <t>Senden Sie Kontaktformulardaten an globale Empfänger, wenn sie übermittelt werden</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17016,13 +17022,13 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>E-Mail-Adresse der mit Koma getrennten Empfänger.</t>
+    <t>E-Mail-Adresse der Empfänger mit Komma getrennt.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Wenden Sie sich an Ihren Hosting-Anbieter, um die PHP SOAP-Erweiterung zu aktivieren.</t>
+    <t>Wenden Sie sich an Ihren Hosting-Provider, um die PHP-SOAP-Erweiterung zu aktivieren.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17076,16 +17082,19 @@
     <t>White label WHMCS</t>
   </si>
   <si>
-    <t>White Label WHMCS</t>
+    <t>White-Label-WHMCS</t>
   </si>
   <si>
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>Anzahl der sichtbaren Zeugnisse</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
-    <t>Die Modulvorlage wurde geändert</t>
+    <t>Modulvorlage hat sich geändert</t>
   </si>
   <si>
     <t>Content versions</t>
@@ -17106,13 +17115,13 @@
     <t>Arrows List</t>
   </si>
   <si>
-    <t>Pfeile Liste</t>
+    <t>Pfeilliste</t>
   </si>
   <si>
     <t>Checked List</t>
   </si>
   <si>
-    <t>Checkliste</t>
+    <t>Geprüfte Liste</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17142,7 +17151,7 @@
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>Zwei Textspalten mit Symbol und Titel</t>
+    <t>Zwei Textspalten mit Icon und Titel</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
@@ -17175,16 +17184,19 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Richten Sie Ihre Captcha-Einstellungen von ein </t>
+    <t xml:space="preserve">Richten Sie Ihre Captcha-Einstellungen ein </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Felder des Formulars mithilfe der benutzerdefinierten Felder hinzufügen / bearbeiten</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>Aktuelle Einstellungen des Kontaktformulars</t>
+    <t>Aktuelle Kontaktformulareinstellungen</t>
   </si>
   <si>
     <t>Contact form name</t>
@@ -17208,7 +17220,7 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Senden Sie Kontaktformulardaten an benutzerdefinierte Empfänger, wenn diese übermittelt werden</t>
+    <t>Senden Sie Kontaktformulardaten an benutzerdefinierte Empfänger, wenn sie gesendet werden</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
@@ -17220,7 +17232,7 @@
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Standardmäßig verwenden wir die globalen Einstellungen für Kontaktformulare.</t>
+    <t>Standardmäßig verwenden wir die globalen Einstellungen des Kontaktformulars.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
@@ -17232,7 +17244,7 @@
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Automatische Antwortnachricht an Benutzer</t>
+    <t>Automatische Antwortnachricht an den Benutzer</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
@@ -17244,46 +17256,46 @@
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Ermöglichen Sie Benutzern, "Danke-E-Mails nach dem Abonnement" zu erhalten.</t>
+    <t>Erlauben Sie Benutzern, „Danke-E-Mails nach dem Abonnement“ zu erhalten.</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Betreff automatisch antworten</t>
+    <t>Betreff automatisch beantworten</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
+    <t>Mit Autorespondern können Sie automatische Antworten auf eingehende E-Mails einrichten</t>
+  </si>
+  <si>
     <t>Auto respond message</t>
   </si>
   <si>
-    <t>Automatische Antwortnachricht</t>
-  </si>
-  <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>Automatisch antwortende E-Mail, die an den Benutzer zurückgesendet wird</t>
+    <t>Automatische Antwort-E-Mail, die an den Benutzer zurückgesendet wird</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Benutzerdefinierter benutzerdefinierter Absender</t>
+    <t>Benutzerdefinierter Absender automatisch antworten</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>Verwenden Sie benutzerdefinierte Absendereinstellungen für das aktuelle Kontaktformular.</t>
+    <t>Benutzerdefinierte Absendereinstellungen für das aktuelle Kontaktformular verwenden.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>Automatische Antwort von der E-Mail-Adresse</t>
+    <t>Automatische Antwort von E-Mail-Adresse</t>
   </si>
   <si>
     <t>Auto respond from name</t>
@@ -17295,25 +17307,25 @@
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Automatische Antwort Antwort auf E-Mail</t>
+    <t>Antwort auf E-Mail automatisch beantworten</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Wenn der Benutzer die automatische Antwortnachricht erhält, kann er antworten, um auf eine E-Mail zu antworten.</t>
+    <t>Wenn der Benutzer die automatische Antwortnachricht erhält, kann er antworten, um auf die E-Mail zu antworten.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Automatische Antwort auf E-Mail-Anhänge</t>
+    <t>E-Mail-Anhänge automatisch beantworten</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Wenn Sie Bilder anhängen möchten, müssen Sie diese über "Medien hinzufügen" in die Galerie hochladen.</t>
+    <t>Wenn Sie Bilder anhängen möchten, müssen Sie sie über „Medien hinzufügen“ in die Galerie hochladen.</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
@@ -17325,7 +17337,7 @@
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Erstelle jetzt deinen ersten Beitrag.</t>
+    <t>Erstellen Sie jetzt Ihren ersten Beitrag.</t>
   </si>
   <si>
     <t>Create a Post</t>
@@ -17346,11 +17358,11 @@
   </si>
   <si>
     <t>So schreiben Sie Produktbeschreibungen, die
-                                                    verkaufen. Eines der besten Dinge, die Sie tun können, um Ihr Geschäft erfolgreich zu machen, ist, etwas Zeit in das Schreiben großartiger Produktbeschreibungen zu investieren. Sie möchten detaillierte und dennoch präzise Informationen bereitstellen, die potenzielle Kunden zum Kauf verleiten.
+                                                    verkaufen Eines der besten Dinge, die Sie tun können, um Ihr Geschäft erfolgreich zu machen, ist, etwas Zeit in das Schreiben großartiger Produktbeschreibungen zu investieren. Sie möchten detaillierte und dennoch prägnante Informationen bereitstellen, die potenzielle Kunden zum Kauf anregen.
                                                     Denken Sie wie ein Verbraucher
-                                                    Überlegen Sie, was Sie als Verbraucher wissen möchten, und nehmen Sie diese Funktionen in Ihre Beschreibung auf. Für Kleidung: Materialien und Passform. Für Lebensmittel: Zutaten und wie es zubereitet wurde. Aufzählungszeichen sind Ihre Freunde, wenn Sie
-                                                   -Funktionen auflisten. Versuchen Sie,
-                                                            jeweils auf 5-8 Wörter zu beschränken.</t>
+                                                    Denken Sie darüber nach, was Sie als Verbraucher wissen möchten, und nehmen Sie diese Merkmale dann in Ihre Beschreibung auf. Für Kleidung: Materialien und Passform. Für Essen: Zutaten und wie es zubereitet wurde. Aufzählungszeichen sind Ihre Freunde, wenn Sie
+                                                   Funktionen auflisten – versuchen Sie,
+                                                            jedes einzelne auf 5–8 Wörter zu begrenzen.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17359,343 +17371,268 @@
     <t>Admin-Sprache</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Unterseite hinzufügen</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategorie gelöscht</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Inhalt gelöscht</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Kategorien suchen</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Inhalte erstellen</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Karte</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Beliebig</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>ID Beschr</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>ID Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Grenze</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Möchten Sie wirklich löschen?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Sie haben keine Produkte in</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Zurück zu</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Benutzerdefinierte Felder werden gespeichert</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Bestehende Felder</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Wählen Sie unten aus Ihren vorhandenen Feldern aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neue Felder hinzufügen</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Fügen Sie ein neues benutzerdefiniertes Feld aus der Liste unten hinzu</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Ihre Felder</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Liste Ihrer hinzugefügten benutzerdefinierten Felder</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Lager</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Bloggen</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Browser-Umleitung</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Import-Export-Tool</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Eigenständiger Updater</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Vorschaupaket</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Verwenden</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Aktuell</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Äußern</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Erste Klasse</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Klicken &amp; Sammeln</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Videohintergrund</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Sie können das Mehrsprachenmodul aktivieren, um mehrere Sprachen zu verwenden</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Mehrsprachiger Modus</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktivieren Sie den Mehrsprachenmodus, um mehrere Sprachen für Ihre Inhalte zu haben.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Übersetzungen werden importiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Übersetzungen nicht in der Datenbank gefunden. Möchten Sie Übersetzungen importieren? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Ihr Warenkorb ist leer.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Code-Editor</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>Bloggen</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Titel 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Titel 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Titel 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Titel 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Titel 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titel 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Titel 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Titel 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>Textblock</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Textblock 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Textblock 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Textblock 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Textblock 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Textblock 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Textblock 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Textblock 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Textblock 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Textblock 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Textblock 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Textblock 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Textblock 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Textblock 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Textblock 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Textblock 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Merkmale</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Funktionen 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Funktionen 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Funktionen 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Funktionen 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menü - Skin-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menü - Haut-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menü - Haut-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menü - Haut-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Menü - Haut-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>Fußzeilen</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Fußzeilen 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Fußzeilen 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Fußzeilen 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Fußzeilen 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Sonstiges</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Preise 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Standardlayouts</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Kein Inhalt hier</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Benutzerdefinierte Felder werden gespeichert</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Bestehende Felder</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Wählen Sie unten aus Ihren vorhandenen Feldern aus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neue Felder hinzufügen</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Fügen Sie ein neues benutzerdefiniertes Feld aus der Liste unten hinzu</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Ihre Felder</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Liste Ihrer hinzugefügten benutzerdefinierten Felder</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Neuimport</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -17741,489 +17678,6 @@
   </si>
   <si>
     <t>Stile neu laden</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Links zu</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Vorschaupaket</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Benutzen</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Strom</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Neu anordnen</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Browser-Umleitung</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Eigenständiger Updater</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Sie benötigen einen Lizenzschlüssel, um dieses Paket zu installieren</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Dieses Paket ist Premium und Sie benötigen einen Lizenzschlüssel, um es zu installieren</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Sie benötigen einen Lizenzschlüssel</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Lizenz aktiviert</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Seite wird neu geladen</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Lizenz nicht aktiviert</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Systemaktualisierung</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Suchen Sie nach Systemaktualisierungen</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Zurück zur Liste</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Die Kategorie muss einen Namen haben</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Kategorie ausgeblendet?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Wenn Sie dies auf JA setzen, wird diese Kategorie auf der Website ausgeblendet</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Erwähnung</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Ihr Warenkorb ist leer.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Gefundene Ergebnisse</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Wenn Sie den Prozentsatz aus dem Auswahlfeld auswählen, wird er automatisch aus dem Preis und dem Angebotspreis des Produkts berechnet.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.erforderlich</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>iuiui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Zur Kasse</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Anzeigen</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>Ergebnisse)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Seitentitel - Rechter Breadcrumb</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Seitentitel - Linker Breadcrumb</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Nutzungsbedingungen</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Lieferung und Rücksendung</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Etwa 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Ungefähr 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Ungefähr 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Startseite 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Haus 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Sie müssen auf die Schaltfläche Vorlage anwenden klicken, um Ihre Vorlage zu ändern</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Suche nach Kriterien</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Stammen aus</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Legen Sie das Bestelldatum fest</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Datum bis</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Legen Sie die Bestellungen auf dem Laufenden</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Bestellmenge ab</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Zeigen Sie die Bestellung mit Mindestbetrag an</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Bestellbetrag bis</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Zeigen Sie die Bestellung mit dem Höchstbetrag an</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Suche nach Produkten...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Suche nach Produkten</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Zahlungsstatus</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Kostenlose Suche nach Telefon, Name, E-Mail etc...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Reichen Sie dieses Kriterium ein</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Filter zurücksetzen</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Alle exportieren</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Sortierung auswählen</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Bestelldatum</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Neu &gt; Alt]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Alt &gt; Neu]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Hoch &gt; Niedrig]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Niedrig &gt; Hoch]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Bestellung abgeschlossen</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>Übersetzungen aus dem Mehrsprachenmodul wurden in Ihrer Datenbank gefunden.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Warnung! Das Ändern der Standardsprache kann Übersetzungen auf Ihrer Website beschädigen.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Möchten Sie wirklich fortfahren?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Warnung! Die sich ändernde Standardsprache wird Ihre Website möglicherweise beschädigen.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Versanddetails</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>Die Bestellung ist noch nicht abgeschlossen</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>die bestellung ist abgeschlossen</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Hergestellt in</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schnellansicht </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Sprachwerte ersetzen</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Übersetzungen werden importiert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Übersetzungen nicht in der Datenbank gefunden. Möchten Sie Übersetzungen importieren? </t>
   </si>
 </sst>
 </file>
@@ -18559,7 +18013,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69204,7 +68658,7 @@
         <v>5614</v>
       </c>
       <c r="D2979" t="s">
-        <v>5614</v>
+        <v>5615</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69218,10 +68672,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
-        <v>5615</v>
+        <v>5616</v>
       </c>
       <c r="D2980" t="s">
-        <v>5616</v>
+        <v>5617</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69235,10 +68689,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
-        <v>5617</v>
+        <v>5618</v>
       </c>
       <c r="D2981" t="s">
-        <v>5618</v>
+        <v>5619</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69252,10 +68706,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
-        <v>5619</v>
+        <v>5620</v>
       </c>
       <c r="D2982" t="s">
-        <v>5620</v>
+        <v>5621</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69269,10 +68723,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
-        <v>5621</v>
+        <v>5622</v>
       </c>
       <c r="D2983" t="s">
-        <v>3784</v>
+        <v>5623</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69286,10 +68740,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5622</v>
+        <v>5624</v>
       </c>
       <c r="D2984" t="s">
-        <v>5623</v>
+        <v>5625</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69303,10 +68757,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5624</v>
+        <v>5626</v>
       </c>
       <c r="D2985" t="s">
-        <v>5625</v>
+        <v>5627</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69320,10 +68774,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5626</v>
+        <v>5628</v>
       </c>
       <c r="D2986" t="s">
-        <v>5627</v>
+        <v>5629</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69337,10 +68791,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5628</v>
+        <v>5630</v>
       </c>
       <c r="D2987" t="s">
-        <v>5629</v>
+        <v>5631</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69354,10 +68808,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5630</v>
+        <v>5632</v>
       </c>
       <c r="D2988" t="s">
-        <v>5631</v>
+        <v>5633</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69371,10 +68825,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5632</v>
+        <v>5634</v>
       </c>
       <c r="D2989" t="s">
-        <v>5633</v>
+        <v>5635</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69388,10 +68842,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5634</v>
+        <v>5636</v>
       </c>
       <c r="D2990" t="s">
-        <v>5635</v>
+        <v>5637</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69405,10 +68859,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5636</v>
+        <v>5638</v>
       </c>
       <c r="D2991" t="s">
-        <v>5637</v>
+        <v>5639</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69422,10 +68876,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5638</v>
+        <v>5640</v>
       </c>
       <c r="D2992" t="s">
-        <v>5639</v>
+        <v>5641</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69439,10 +68893,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5640</v>
+        <v>5642</v>
       </c>
       <c r="D2993" t="s">
-        <v>5641</v>
+        <v>5643</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69456,10 +68910,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5642</v>
+        <v>5644</v>
       </c>
       <c r="D2994" t="s">
-        <v>5643</v>
+        <v>5645</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69473,10 +68927,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5644</v>
+        <v>5646</v>
       </c>
       <c r="D2995" t="s">
-        <v>5645</v>
+        <v>5647</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69490,10 +68944,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5646</v>
+        <v>5648</v>
       </c>
       <c r="D2996" t="s">
-        <v>5647</v>
+        <v>5649</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69507,10 +68961,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5648</v>
+        <v>5650</v>
       </c>
       <c r="D2997" t="s">
-        <v>5649</v>
+        <v>5651</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69524,10 +68978,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5650</v>
+        <v>5652</v>
       </c>
       <c r="D2998" t="s">
-        <v>5651</v>
+        <v>5653</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69541,10 +68995,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5652</v>
+        <v>5654</v>
       </c>
       <c r="D2999" t="s">
-        <v>5653</v>
+        <v>5655</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69558,10 +69012,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5654</v>
+        <v>5656</v>
       </c>
       <c r="D3000" t="s">
-        <v>5655</v>
+        <v>5657</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69575,10 +69029,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5656</v>
+        <v>5658</v>
       </c>
       <c r="D3001" t="s">
-        <v>5657</v>
+        <v>5659</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69592,10 +69046,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5658</v>
+        <v>5660</v>
       </c>
       <c r="D3002" t="s">
-        <v>5659</v>
+        <v>5661</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -69609,10 +69063,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5660</v>
+        <v>5662</v>
       </c>
       <c r="D3003" t="s">
-        <v>5661</v>
+        <v>5663</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -69626,10 +69080,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5662</v>
+        <v>5664</v>
       </c>
       <c r="D3004" t="s">
-        <v>5663</v>
+        <v>5665</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -69643,10 +69097,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5664</v>
+        <v>5666</v>
       </c>
       <c r="D3005" t="s">
-        <v>5665</v>
+        <v>5667</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -69660,10 +69114,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5666</v>
+        <v>5668</v>
       </c>
       <c r="D3006" t="s">
-        <v>5667</v>
+        <v>5669</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -69677,10 +69131,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5668</v>
+        <v>5670</v>
       </c>
       <c r="D3007" t="s">
-        <v>5669</v>
+        <v>5671</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -69694,10 +69148,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5670</v>
+        <v>5672</v>
       </c>
       <c r="D3008" t="s">
-        <v>5671</v>
+        <v>5673</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -69711,10 +69165,10 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5672</v>
+        <v>5674</v>
       </c>
       <c r="D3009" t="s">
-        <v>5673</v>
+        <v>5675</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -69728,10 +69182,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5674</v>
+        <v>5676</v>
       </c>
       <c r="D3010" t="s">
-        <v>5675</v>
+        <v>5677</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -69745,10 +69199,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5676</v>
+        <v>5678</v>
       </c>
       <c r="D3011" t="s">
-        <v>5677</v>
+        <v>5679</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -69762,10 +69216,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5678</v>
+        <v>5680</v>
       </c>
       <c r="D3012" t="s">
-        <v>5678</v>
+        <v>5680</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -69779,10 +69233,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5679</v>
+        <v>5681</v>
       </c>
       <c r="D3013" t="s">
-        <v>5679</v>
+        <v>5681</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -69796,10 +69250,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5680</v>
+        <v>5682</v>
       </c>
       <c r="D3014" t="s">
-        <v>5681</v>
+        <v>5683</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -69813,10 +69267,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5682</v>
+        <v>5684</v>
       </c>
       <c r="D3015" t="s">
-        <v>5683</v>
+        <v>5685</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -69830,10 +69284,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5684</v>
+        <v>5686</v>
       </c>
       <c r="D3016" t="s">
-        <v>5685</v>
+        <v>5687</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -69847,10 +69301,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5686</v>
+        <v>5688</v>
       </c>
       <c r="D3017" t="s">
-        <v>3280</v>
+        <v>5689</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -69864,10 +69318,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5687</v>
+        <v>5690</v>
       </c>
       <c r="D3018" t="s">
-        <v>5688</v>
+        <v>5691</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -69881,10 +69335,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5689</v>
+        <v>5692</v>
       </c>
       <c r="D3019" t="s">
-        <v>5690</v>
+        <v>5693</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -69898,7 +69352,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5691</v>
+        <v>5694</v>
       </c>
       <c r="D3020" t="s">
         <v>1559</v>
@@ -69915,10 +69369,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5692</v>
+        <v>5695</v>
       </c>
       <c r="D3021" t="s">
-        <v>5693</v>
+        <v>5696</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -69932,10 +69386,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5694</v>
+        <v>5697</v>
       </c>
       <c r="D3022" t="s">
-        <v>5695</v>
+        <v>5698</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -69949,10 +69403,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5696</v>
+        <v>5699</v>
       </c>
       <c r="D3023" t="s">
-        <v>5697</v>
+        <v>5700</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -69966,10 +69420,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5698</v>
+        <v>5701</v>
       </c>
       <c r="D3024" t="s">
-        <v>5699</v>
+        <v>5702</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -69983,10 +69437,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5700</v>
+        <v>5703</v>
       </c>
       <c r="D3025" t="s">
-        <v>5701</v>
+        <v>5704</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70000,10 +69454,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5702</v>
+        <v>5705</v>
       </c>
       <c r="D3026" t="s">
-        <v>5703</v>
+        <v>5706</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70017,10 +69471,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5704</v>
+        <v>5707</v>
       </c>
       <c r="D3027" t="s">
-        <v>5705</v>
+        <v>5708</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70034,10 +69488,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5706</v>
+        <v>5709</v>
       </c>
       <c r="D3028" t="s">
-        <v>5707</v>
+        <v>5710</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70051,10 +69505,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5708</v>
+        <v>5711</v>
       </c>
       <c r="D3029" t="s">
-        <v>5709</v>
+        <v>5712</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70068,10 +69522,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5710</v>
+        <v>5713</v>
       </c>
       <c r="D3030" t="s">
-        <v>5711</v>
+        <v>5714</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70085,7 +69539,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5712</v>
+        <v>5715</v>
       </c>
       <c r="D3031" t="s">
         <v>1113</v>
@@ -70102,10 +69556,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5713</v>
+        <v>5716</v>
       </c>
       <c r="D3032" t="s">
-        <v>5714</v>
+        <v>5717</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70119,10 +69573,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5715</v>
+        <v>5718</v>
       </c>
       <c r="D3033" t="s">
-        <v>5716</v>
+        <v>5719</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70136,10 +69590,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5717</v>
+        <v>5720</v>
       </c>
       <c r="D3034" t="s">
-        <v>5718</v>
+        <v>5721</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70153,10 +69607,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5719</v>
+        <v>5722</v>
       </c>
       <c r="D3035" t="s">
-        <v>4851</v>
+        <v>5723</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70170,10 +69624,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5720</v>
+        <v>5724</v>
       </c>
       <c r="D3036" t="s">
-        <v>5721</v>
+        <v>5725</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70187,10 +69641,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5722</v>
+        <v>5726</v>
       </c>
       <c r="D3037" t="s">
-        <v>5723</v>
+        <v>5727</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70204,10 +69658,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5724</v>
+        <v>5728</v>
       </c>
       <c r="D3038" t="s">
-        <v>5725</v>
+        <v>5729</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70221,10 +69675,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5726</v>
+        <v>5730</v>
       </c>
       <c r="D3039" t="s">
-        <v>5727</v>
+        <v>5731</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70238,10 +69692,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5728</v>
+        <v>5732</v>
       </c>
       <c r="D3040" t="s">
-        <v>5729</v>
+        <v>5733</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70255,10 +69709,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5730</v>
+        <v>5734</v>
       </c>
       <c r="D3041" t="s">
-        <v>5731</v>
+        <v>5735</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70272,10 +69726,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5732</v>
+        <v>5736</v>
       </c>
       <c r="D3042" t="s">
-        <v>5733</v>
+        <v>5737</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70289,10 +69743,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5734</v>
+        <v>5738</v>
       </c>
       <c r="D3043" t="s">
-        <v>5735</v>
+        <v>5739</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70306,10 +69760,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5736</v>
+        <v>5740</v>
       </c>
       <c r="D3044" t="s">
-        <v>5737</v>
+        <v>5741</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70323,10 +69777,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5738</v>
+        <v>5742</v>
       </c>
       <c r="D3045" t="s">
-        <v>5739</v>
+        <v>5743</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70340,10 +69794,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5740</v>
+        <v>5744</v>
       </c>
       <c r="D3046" t="s">
-        <v>5741</v>
+        <v>5745</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70357,10 +69811,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5742</v>
+        <v>5746</v>
       </c>
       <c r="D3047" t="s">
-        <v>5743</v>
+        <v>5747</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70374,10 +69828,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5744</v>
+        <v>5748</v>
       </c>
       <c r="D3048" t="s">
-        <v>3090</v>
+        <v>5749</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70391,10 +69845,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5745</v>
+        <v>5750</v>
       </c>
       <c r="D3049" t="s">
-        <v>5746</v>
+        <v>3084</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70408,10 +69862,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5747</v>
+        <v>5751</v>
       </c>
       <c r="D3050" t="s">
-        <v>5748</v>
+        <v>5752</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70425,10 +69879,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5749</v>
+        <v>5753</v>
       </c>
       <c r="D3051" t="s">
-        <v>5750</v>
+        <v>5754</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70442,10 +69896,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5751</v>
+        <v>5755</v>
       </c>
       <c r="D3052" t="s">
-        <v>5752</v>
+        <v>5756</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70459,10 +69913,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5753</v>
+        <v>5757</v>
       </c>
       <c r="D3053" t="s">
-        <v>5754</v>
+        <v>5758</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70476,10 +69930,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5755</v>
+        <v>5759</v>
       </c>
       <c r="D3054" t="s">
-        <v>5756</v>
+        <v>5760</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70493,10 +69947,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5757</v>
+        <v>5761</v>
       </c>
       <c r="D3055" t="s">
-        <v>5758</v>
+        <v>5762</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70510,10 +69964,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5759</v>
+        <v>5763</v>
       </c>
       <c r="D3056" t="s">
-        <v>5760</v>
+        <v>5764</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70527,10 +69981,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5761</v>
+        <v>5765</v>
       </c>
       <c r="D3057" t="s">
-        <v>5762</v>
+        <v>5766</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70544,10 +69998,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5763</v>
+        <v>5767</v>
       </c>
       <c r="D3058" t="s">
-        <v>5764</v>
+        <v>5768</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70561,10 +70015,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5765</v>
+        <v>5769</v>
       </c>
       <c r="D3059" t="s">
-        <v>5766</v>
+        <v>5770</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70578,10 +70032,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5767</v>
+        <v>5771</v>
       </c>
       <c r="D3060" t="s">
-        <v>5768</v>
+        <v>5772</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70595,10 +70049,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5769</v>
+        <v>5773</v>
       </c>
       <c r="D3061" t="s">
-        <v>5770</v>
+        <v>5774</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70609,13 +70063,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5771</v>
+        <v>5775</v>
       </c>
       <c r="C3062" t="s">
-        <v>5772</v>
+        <v>5776</v>
       </c>
       <c r="D3062" t="s">
-        <v>5773</v>
+        <v>5777</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70629,10 +70083,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5774</v>
+        <v>5778</v>
       </c>
       <c r="D3063" t="s">
-        <v>5775</v>
+        <v>5779</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70646,10 +70100,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5776</v>
+        <v>5780</v>
       </c>
       <c r="D3064" t="s">
-        <v>5777</v>
+        <v>4192</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70663,10 +70117,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5778</v>
+        <v>5781</v>
       </c>
       <c r="D3065" t="s">
-        <v>5779</v>
+        <v>5782</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -70680,10 +70134,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5780</v>
+        <v>5783</v>
       </c>
       <c r="D3066" t="s">
-        <v>5781</v>
+        <v>5784</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -70697,10 +70151,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5782</v>
+        <v>5785</v>
       </c>
       <c r="D3067" t="s">
-        <v>2211</v>
+        <v>5786</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -70714,10 +70168,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5783</v>
+        <v>5787</v>
       </c>
       <c r="D3068" t="s">
-        <v>5784</v>
+        <v>5788</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -70731,10 +70185,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5785</v>
+        <v>5789</v>
       </c>
       <c r="D3069" t="s">
-        <v>5786</v>
+        <v>5790</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -70748,10 +70202,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5787</v>
+        <v>5791</v>
       </c>
       <c r="D3070" t="s">
-        <v>5788</v>
+        <v>5792</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -70765,10 +70219,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5789</v>
+        <v>5793</v>
       </c>
       <c r="D3071" t="s">
-        <v>5790</v>
+        <v>5794</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -70782,10 +70236,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5791</v>
+        <v>5795</v>
       </c>
       <c r="D3072" t="s">
-        <v>5792</v>
+        <v>5796</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -70799,10 +70253,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5793</v>
+        <v>5797</v>
       </c>
       <c r="D3073" t="s">
-        <v>5794</v>
+        <v>5798</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -70816,10 +70270,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5795</v>
+        <v>5799</v>
       </c>
       <c r="D3074" t="s">
-        <v>5796</v>
+        <v>5800</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -70833,10 +70287,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5797</v>
+        <v>5801</v>
       </c>
       <c r="D3075" t="s">
-        <v>5798</v>
+        <v>5802</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -70850,10 +70304,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5799</v>
+        <v>5803</v>
       </c>
       <c r="D3076" t="s">
-        <v>5800</v>
+        <v>5804</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -70867,10 +70321,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5801</v>
+        <v>5805</v>
       </c>
       <c r="D3077" t="s">
-        <v>5802</v>
+        <v>5806</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -70884,10 +70338,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5803</v>
+        <v>5807</v>
       </c>
       <c r="D3078" t="s">
-        <v>5804</v>
+        <v>2124</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -70901,10 +70355,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5805</v>
+        <v>5808</v>
       </c>
       <c r="D3079" t="s">
-        <v>5806</v>
+        <v>5809</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -70918,10 +70372,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5807</v>
+        <v>5810</v>
       </c>
       <c r="D3080" t="s">
-        <v>5808</v>
+        <v>5811</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -70935,10 +70389,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5809</v>
+        <v>5812</v>
       </c>
       <c r="D3081" t="s">
-        <v>5810</v>
+        <v>5813</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -70952,10 +70406,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5811</v>
+        <v>5814</v>
       </c>
       <c r="D3082" t="s">
-        <v>5812</v>
+        <v>5815</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -70969,10 +70423,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5813</v>
+        <v>5816</v>
       </c>
       <c r="D3083" t="s">
-        <v>5814</v>
+        <v>5817</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -70986,10 +70440,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5815</v>
+        <v>5818</v>
       </c>
       <c r="D3084" t="s">
-        <v>5816</v>
+        <v>5819</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71003,10 +70457,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5817</v>
+        <v>5820</v>
       </c>
       <c r="D3085" t="s">
-        <v>5818</v>
+        <v>5821</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71020,10 +70474,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5819</v>
+        <v>5822</v>
       </c>
       <c r="D3086" t="s">
-        <v>5820</v>
+        <v>5823</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71037,10 +70491,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5821</v>
+        <v>5824</v>
       </c>
       <c r="D3087" t="s">
-        <v>5822</v>
+        <v>5824</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71054,10 +70508,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5823</v>
+        <v>5825</v>
       </c>
       <c r="D3088" t="s">
-        <v>5824</v>
+        <v>5826</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71071,10 +70525,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5825</v>
+        <v>5827</v>
       </c>
       <c r="D3089" t="s">
-        <v>5826</v>
+        <v>5828</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71088,10 +70542,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5827</v>
+        <v>5829</v>
       </c>
       <c r="D3090" t="s">
-        <v>5828</v>
+        <v>5829</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71105,10 +70559,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5829</v>
+        <v>5830</v>
       </c>
       <c r="D3091" t="s">
-        <v>5830</v>
+        <v>5831</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71122,10 +70576,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5831</v>
+        <v>5832</v>
       </c>
       <c r="D3092" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71139,10 +70593,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5833</v>
+        <v>5834</v>
       </c>
       <c r="D3093" t="s">
-        <v>5834</v>
+        <v>5835</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71156,7 +70610,7 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5835</v>
+        <v>5836</v>
       </c>
       <c r="D3094" t="s">
         <v>5836</v>
@@ -71210,7 +70664,7 @@
         <v>5841</v>
       </c>
       <c r="D3097" t="s">
-        <v>1069</v>
+        <v>5842</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71224,10 +70678,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5842</v>
+        <v>5843</v>
       </c>
       <c r="D3098" t="s">
-        <v>2197</v>
+        <v>5844</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71241,10 +70695,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5843</v>
+        <v>5845</v>
       </c>
       <c r="D3099" t="s">
-        <v>5844</v>
+        <v>5846</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71258,10 +70712,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5845</v>
+        <v>5847</v>
       </c>
       <c r="D3100" t="s">
-        <v>5846</v>
+        <v>5848</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71275,10 +70729,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5847</v>
+        <v>5849</v>
       </c>
       <c r="D3101" t="s">
-        <v>5848</v>
+        <v>1501</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71292,10 +70746,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5849</v>
+        <v>5850</v>
       </c>
       <c r="D3102" t="s">
-        <v>5850</v>
+        <v>5851</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71309,10 +70763,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5851</v>
+        <v>5852</v>
       </c>
       <c r="D3103" t="s">
-        <v>5852</v>
+        <v>5853</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71326,10 +70780,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5853</v>
+        <v>5854</v>
       </c>
       <c r="D3104" t="s">
-        <v>5854</v>
+        <v>5855</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71343,10 +70797,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5855</v>
+        <v>5856</v>
       </c>
       <c r="D3105" t="s">
-        <v>5856</v>
+        <v>5857</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71360,10 +70814,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5857</v>
+        <v>5858</v>
       </c>
       <c r="D3106" t="s">
-        <v>5858</v>
+        <v>5859</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71377,10 +70831,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5859</v>
+        <v>5860</v>
       </c>
       <c r="D3107" t="s">
-        <v>5860</v>
+        <v>5861</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71394,10 +70848,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5861</v>
+        <v>5862</v>
       </c>
       <c r="D3108" t="s">
-        <v>5862</v>
+        <v>5863</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71410,11 +70864,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5863</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5864</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71427,11 +70881,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5865</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71445,10 +70899,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5865</v>
+        <v>5866</v>
       </c>
       <c r="D3111" t="s">
-        <v>5866</v>
+        <v>5867</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71462,10 +70916,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5867</v>
+        <v>5868</v>
       </c>
       <c r="D3112" t="s">
-        <v>5867</v>
+        <v>5869</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71479,10 +70933,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5868</v>
+        <v>5870</v>
       </c>
       <c r="D3113" t="s">
-        <v>2646</v>
+        <v>5871</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71496,10 +70950,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5869</v>
+        <v>5872</v>
       </c>
       <c r="D3114" t="s">
-        <v>5870</v>
+        <v>5873</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71513,10 +70967,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5871</v>
+        <v>5874</v>
       </c>
       <c r="D3115" t="s">
-        <v>5872</v>
+        <v>5875</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71530,10 +70984,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5873</v>
+        <v>5876</v>
       </c>
       <c r="D3116" t="s">
-        <v>5874</v>
+        <v>5876</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71547,10 +71001,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5875</v>
+        <v>5877</v>
       </c>
       <c r="D3117" t="s">
-        <v>5876</v>
+        <v>5878</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71564,10 +71018,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5877</v>
+        <v>5879</v>
       </c>
       <c r="D3118" t="s">
-        <v>5878</v>
+        <v>5880</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71581,1678 +71035,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5879</v>
+        <v>5881</v>
       </c>
       <c r="D3119" t="s">
-        <v>5880</v>
+        <v>5882</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5881</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5882</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5883</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5884</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5885</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5886</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5887</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5888</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5889</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5890</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5891</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5892</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5893</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>5894</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5895</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5896</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5897</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5897</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>5898</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>5900</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>5901</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>5902</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>5904</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>5905</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>5906</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>5907</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>5908</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>5908</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>5909</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>5910</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>5911</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>5912</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>5913</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>5914</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>5915</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>5915</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>5916</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>5917</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>5918</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>5918</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>5919</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>5920</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>5921</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>5922</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>5923</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>5924</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>5925</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>5926</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>5927</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>5928</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>5929</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>5930</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>5931</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>5932</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>5933</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2693</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>5934</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>5935</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>5936</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>5937</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>5938</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>5939</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>5940</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>5941</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>5942</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>5943</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>5944</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>5945</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>5946</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>5947</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>5948</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>5949</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>5950</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5771</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>5951</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>5952</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>5953</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>5954</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>5955</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>5955</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>5956</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>5957</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>5958</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>5956</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>5959</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>5959</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>5960</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>5960</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>5961</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>5962</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>5963</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>5964</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>5965</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>5965</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>5966</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>5967</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>5968</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>3732</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>5969</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>5970</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>5971</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>5972</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>5973</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>5974</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>5975</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>5976</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>5977</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>5978</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>5979</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>5980</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>5981</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>5982</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>5983</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>5984</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>5985</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>5986</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>5987</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>5988</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>5989</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>5990</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>5991</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>5992</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>5993</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>5994</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1804</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>5995</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>5996</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>5997</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>5998</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6010</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6012</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6020</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6022</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4104</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>2215</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
